--- a/data/douban/book-计算机.xlsx
+++ b/data/douban/book-计算机.xlsx
@@ -79,6 +79,15 @@
     <t>出版信息：  机械工业出版社 / 2004-1-1 / 30.00元</t>
   </si>
   <si>
+    <t>算法导论（原书第2版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者/译者： [美] Thomas H.Cormen / Charles E.Leiserson / Ronald L.Rivest / Clifford Stein / 潘金贵 等 </t>
+  </si>
+  <si>
+    <t>出版信息：  机械工业出版社 / 2006-9 / 85.00元</t>
+  </si>
+  <si>
     <t>代码大全（第2版）</t>
   </si>
   <si>
@@ -173,15 +182,6 @@
   </si>
   <si>
     <t>出版信息：  清华大学出版社 / 2012-3 / 38.00元</t>
-  </si>
-  <si>
-    <t>破茧成蝶：用户体验设计师的成长之路</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作者/译者： 刘津 / 李月 </t>
-  </si>
-  <si>
-    <t>出版信息：  人民邮电出版社 / 2014-7 / 69.00</t>
   </si>
   <si>
     <t>创业维艰</t>
@@ -761,7 +761,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -838,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
         <v>9.1</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -858,16 +858,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -881,16 +881,16 @@
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -898,7 +898,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
         <v>8.9</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
         <v>41</v>
@@ -921,7 +921,7 @@
         <v>42</v>
       </c>
       <c r="C15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -978,7 +978,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="n">
         <v>8.800000000000001</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
         <v>52</v>
